--- a/static/rhythm_games/No Overlap Gold.xlsx
+++ b/static/rhythm_games/No Overlap Gold.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="33">
   <si>
     <t>Minigame Name</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>no.png</t>
   </si>
   <si>
     <t>Love Lab</t>
@@ -113,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -122,6 +125,15 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -140,20 +152,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFA3"/>
-        <bgColor rgb="FFFFFFA3"/>
+        <fgColor rgb="FFE5E593"/>
+        <bgColor rgb="FFE5E593"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCACA"/>
-        <bgColor rgb="FFFFCACA"/>
+        <fgColor rgb="FFE59393"/>
+        <bgColor rgb="FFE59393"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFABAB"/>
-        <bgColor rgb="FFFFABAB"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -163,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -185,16 +197,19 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -465,7 +480,9 @@
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
@@ -473,7 +490,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>10</v>
@@ -490,7 +507,9 @@
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
@@ -498,7 +517,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>10</v>
@@ -515,7 +534,9 @@
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
@@ -523,7 +544,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>10</v>
@@ -540,18 +561,20 @@
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="B7" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
@@ -564,18 +587,20 @@
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
@@ -588,17 +613,19 @@
       <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>17</v>
+      <c r="A9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>11</v>
@@ -612,17 +639,19 @@
       <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>17</v>
+      <c r="A10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>11</v>
@@ -636,17 +665,19 @@
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>17</v>
+      <c r="A11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>11</v>
@@ -660,42 +691,46 @@
       <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="6" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>24</v>
-      </c>
       <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
@@ -708,17 +743,19 @@
       <c r="F14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>24</v>
+      <c r="A15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>11</v>
@@ -732,17 +769,19 @@
       <c r="F15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>17</v>
+      <c r="A17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>11</v>
@@ -756,17 +795,19 @@
       <c r="F17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>17</v>
+      <c r="A18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>11</v>
@@ -780,17 +821,19 @@
       <c r="F18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>17</v>
+      <c r="A19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>11</v>
@@ -804,17 +847,19 @@
       <c r="F19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>17</v>
+      <c r="A20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>11</v>
@@ -828,17 +873,19 @@
       <c r="F20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>24</v>
+      <c r="A22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>11</v>
@@ -852,9 +899,11 @@
       <c r="F22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/static/rhythm_games/No Overlap Gold.xlsx
+++ b/static/rhythm_games/No Overlap Gold.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="43">
   <si>
     <t>Minigame Name</t>
   </si>
@@ -52,52 +52,82 @@
     <t>No</t>
   </si>
   <si>
+    <t>love_lizards_gold.png</t>
+  </si>
+  <si>
+    <t>Love Lab</t>
+  </si>
+  <si>
+    <t>love_lab_gold.png</t>
+  </si>
+  <si>
+    <t>Splashdown 1</t>
+  </si>
+  <si>
+    <t>splashdown_1_gold.png</t>
+  </si>
+  <si>
+    <t>Space Soccer</t>
+  </si>
+  <si>
+    <t>space_soccer_1_gold.png</t>
+  </si>
+  <si>
+    <t>Crop Stomp</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>crop_stomp_gold.png</t>
+  </si>
+  <si>
+    <t>Moai Doo-Wop</t>
+  </si>
+  <si>
+    <t>moai_doo_wop_1_gold.png</t>
+  </si>
+  <si>
+    <t>Drummer Duel</t>
+  </si>
+  <si>
+    <t>drummer_duel_gold.png</t>
+  </si>
+  <si>
+    <t>Splashdown 2</t>
+  </si>
+  <si>
+    <t>splashdown_2_gold.png</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Space Soccer 2</t>
+  </si>
+  <si>
+    <t>Very Hard</t>
+  </si>
+  <si>
+    <t>space_soccer_2_gold.png</t>
+  </si>
+  <si>
+    <t>Rockers 2</t>
+  </si>
+  <si>
+    <t>rockers_2_gold.png</t>
+  </si>
+  <si>
+    <t>Moai Doo-Wop 2</t>
+  </si>
+  <si>
+    <t>moai_doo_wop_2_gold.png</t>
+  </si>
+  <si>
+    <t>Remix 2</t>
+  </si>
+  <si>
     <t>no.png</t>
-  </si>
-  <si>
-    <t>Love Lab</t>
-  </si>
-  <si>
-    <t>Splashdown 1</t>
-  </si>
-  <si>
-    <t>Space Soccer</t>
-  </si>
-  <si>
-    <t>Crop Stomp</t>
-  </si>
-  <si>
-    <t>Hard</t>
-  </si>
-  <si>
-    <t>Moai Doo-Wop</t>
-  </si>
-  <si>
-    <t>Drummer Duel</t>
-  </si>
-  <si>
-    <t>Rockers 1</t>
-  </si>
-  <si>
-    <t>Splashdown 2</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Space Soccer 2</t>
-  </si>
-  <si>
-    <t>Very Hard</t>
-  </si>
-  <si>
-    <t>Rockers 2</t>
-  </si>
-  <si>
-    <t>Moai Doo-Wop 2</t>
-  </si>
-  <si>
-    <t>Remix 2</t>
   </si>
   <si>
     <t>Remix 3</t>
@@ -128,12 +158,12 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FFFFFFFF"/>
+      <b/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -175,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -197,7 +227,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -206,11 +236,14 @@
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,7 +541,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -517,7 +550,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>10</v>
@@ -535,7 +568,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
@@ -544,7 +577,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>10</v>
@@ -562,7 +595,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>12</v>
@@ -570,10 +603,10 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>11</v>
@@ -588,7 +621,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>12</v>
@@ -596,10 +629,10 @@
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>11</v>
@@ -614,7 +647,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>12</v>
@@ -622,10 +655,10 @@
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>11</v>
@@ -640,7 +673,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>12</v>
@@ -648,11 +681,11 @@
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
@@ -666,44 +699,44 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>11</v>
@@ -718,18 +751,18 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>11</v>
@@ -744,44 +777,44 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>11</v>
@@ -795,45 +828,45 @@
       <c r="F17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>13</v>
+      <c r="G17" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>11</v>
@@ -847,63 +880,37 @@
       <c r="F19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
+      <c r="G19" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>23</v>
+      <c r="C21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
